--- a/app/Data/Data2/MarkketData.xlsx
+++ b/app/Data/Data2/MarkketData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/SavoyV2/savoy_ecommerce/app/Data/Data2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CA472A-21B9-D749-A821-3B6612B8CB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C230F3-63B8-E24B-BAE9-B36DD265623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5740" yWindow="-21100" windowWidth="38400" windowHeight="20040" firstSheet="6" activeTab="20" xr2:uid="{0A99AAA8-92DD-8A43-A2A1-C731E7BCC580}"/>
+    <workbookView xWindow="-5740" yWindow="-21100" windowWidth="38400" windowHeight="20040" firstSheet="3" activeTab="7" xr2:uid="{0A99AAA8-92DD-8A43-A2A1-C731E7BCC580}"/>
   </bookViews>
   <sheets>
     <sheet name="Beer, Cider &amp; Alcoholic RTDs" sheetId="1" r:id="rId1"/>
@@ -346,9 +346,6 @@
     <t>Disposable Tableware</t>
   </si>
   <si>
-    <t>Food/Takeaway Containers</t>
-  </si>
-  <si>
     <t>Food Wraps &amp; Bags</t>
   </si>
   <si>
@@ -418,9 +415,6 @@
     <t>Other Frozen Meat</t>
   </si>
   <si>
-    <t>Frozen Beef/Veal</t>
-  </si>
-  <si>
     <t>Frozen Lamb</t>
   </si>
   <si>
@@ -839,6 +833,12 @@
   </si>
   <si>
     <t>Wine Boxes</t>
+  </si>
+  <si>
+    <t>Food-Takeaway Containers</t>
+  </si>
+  <si>
+    <t>Frozen Beef-Veal</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>66</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>66</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>66</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>66</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>66</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>66</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>66</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>66</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>66</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>66</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>66</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>66</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>66</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>66</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
@@ -2373,7 +2373,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>66</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>66</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>66</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>66</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>66</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>66</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>66</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>66</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>66</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>66</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>66</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>66</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>66</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -3123,7 +3123,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>66</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>66</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>66</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>66</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>66</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>66</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>66</v>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>66</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>66</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>66</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -3323,7 +3323,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -3444,7 +3444,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>66</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>66</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>66</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -3834,7 +3834,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -3904,7 +3904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A35546-E8C4-874E-8147-0647A4FCD3B8}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
@@ -4415,7 +4415,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>66</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>66</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>66</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>66</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>66</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>66</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>66</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>66</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>66</v>
@@ -4703,8 +4703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69317EF7-1185-B842-B6D4-AF10C6619F98}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>66</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>66</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>66</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>66</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>66</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>66</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>66</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>68</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>66</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>66</v>
